--- a/natmiOut/OldD0/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.2459692143416</v>
+        <v>109.026058</v>
       </c>
       <c r="H2">
-        <v>29.2459692143416</v>
+        <v>327.078174</v>
       </c>
       <c r="I2">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="J2">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N2">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O2">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P2">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q2">
-        <v>179.2521232298091</v>
+        <v>786.5260479624186</v>
       </c>
       <c r="R2">
-        <v>179.2521232298091</v>
+        <v>7078.734431661767</v>
       </c>
       <c r="S2">
-        <v>0.04575773748130952</v>
+        <v>0.1430016676728605</v>
       </c>
       <c r="T2">
-        <v>0.04575773748130952</v>
+        <v>0.1430016676728605</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.2459692143416</v>
+        <v>109.026058</v>
       </c>
       <c r="H3">
-        <v>29.2459692143416</v>
+        <v>327.078174</v>
       </c>
       <c r="I3">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="J3">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N3">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P3">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q3">
-        <v>207.0941877907932</v>
+        <v>775.2135041843386</v>
       </c>
       <c r="R3">
-        <v>207.0941877907932</v>
+        <v>6976.921537659047</v>
       </c>
       <c r="S3">
-        <v>0.0528649887549018</v>
+        <v>0.1409448856628069</v>
       </c>
       <c r="T3">
-        <v>0.0528649887549018</v>
+        <v>0.1409448856628069</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.2459692143416</v>
+        <v>109.026058</v>
       </c>
       <c r="H4">
-        <v>29.2459692143416</v>
+        <v>327.078174</v>
       </c>
       <c r="I4">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="J4">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N4">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P4">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q4">
-        <v>30.10683233656997</v>
+        <v>115.7089555931873</v>
       </c>
       <c r="R4">
-        <v>30.10683233656997</v>
+        <v>1041.380600338686</v>
       </c>
       <c r="S4">
-        <v>0.007685379149927274</v>
+        <v>0.02103754053330649</v>
       </c>
       <c r="T4">
-        <v>0.007685379149927274</v>
+        <v>0.02103754053330649</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>89.6762935360389</v>
+        <v>89.97721833333333</v>
       </c>
       <c r="H5">
-        <v>89.6762935360389</v>
+        <v>269.931655</v>
       </c>
       <c r="I5">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001918</v>
       </c>
       <c r="J5">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001917</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N5">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O5">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P5">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q5">
-        <v>549.6369739674043</v>
+        <v>649.1056105354955</v>
       </c>
       <c r="R5">
-        <v>549.6369739674043</v>
+        <v>5841.950494819459</v>
       </c>
       <c r="S5">
-        <v>0.1403059774783155</v>
+        <v>0.1180166696867252</v>
       </c>
       <c r="T5">
-        <v>0.1403059774783155</v>
+        <v>0.1180166696867252</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>89.6762935360389</v>
+        <v>89.97721833333333</v>
       </c>
       <c r="H6">
-        <v>89.6762935360389</v>
+        <v>269.931655</v>
       </c>
       <c r="I6">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001918</v>
       </c>
       <c r="J6">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001917</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N6">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P6">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q6">
-        <v>635.0085045165027</v>
+        <v>639.7695743612288</v>
       </c>
       <c r="R6">
-        <v>635.0085045165027</v>
+        <v>5757.926169251059</v>
       </c>
       <c r="S6">
-        <v>0.1620987909348962</v>
+        <v>0.116319244984984</v>
       </c>
       <c r="T6">
-        <v>0.1620987909348962</v>
+        <v>0.116319244984984</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>89.6762935360389</v>
+        <v>89.97721833333333</v>
       </c>
       <c r="H7">
-        <v>89.6762935360389</v>
+        <v>269.931655</v>
       </c>
       <c r="I7">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001918</v>
       </c>
       <c r="J7">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001917</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N7">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P7">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q7">
-        <v>92.3159398229346</v>
+        <v>95.49249190069942</v>
       </c>
       <c r="R7">
-        <v>92.3159398229346</v>
+        <v>859.4324271062949</v>
       </c>
       <c r="S7">
-        <v>0.02356551467087862</v>
+        <v>0.01736189872848258</v>
       </c>
       <c r="T7">
-        <v>0.02356551467087862</v>
+        <v>0.01736189872848257</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>156.183469856862</v>
+        <v>158.477852</v>
       </c>
       <c r="H8">
-        <v>156.183469856862</v>
+        <v>475.433556</v>
       </c>
       <c r="I8">
-        <v>0.5677216115297711</v>
+        <v>0.4433180927308344</v>
       </c>
       <c r="J8">
-        <v>0.5677216115297711</v>
+        <v>0.4433180927308344</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N8">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O8">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P8">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q8">
-        <v>957.2675940420759</v>
+        <v>1143.276762543621</v>
       </c>
       <c r="R8">
-        <v>957.2675940420759</v>
+        <v>10289.49086289259</v>
       </c>
       <c r="S8">
-        <v>0.2443619549844075</v>
+        <v>0.2078640422385332</v>
       </c>
       <c r="T8">
-        <v>0.2443619549844075</v>
+        <v>0.2078640422385331</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>156.183469856862</v>
+        <v>158.477852</v>
       </c>
       <c r="H9">
-        <v>156.183469856862</v>
+        <v>475.433556</v>
       </c>
       <c r="I9">
-        <v>0.5677216115297711</v>
+        <v>0.4433180927308344</v>
       </c>
       <c r="J9">
-        <v>0.5677216115297711</v>
+        <v>0.4433180927308344</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N9">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O9">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P9">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q9">
-        <v>1105.953733292365</v>
+        <v>1126.833100620101</v>
       </c>
       <c r="R9">
-        <v>1105.953733292365</v>
+        <v>10141.49790558091</v>
       </c>
       <c r="S9">
-        <v>0.2823171055529825</v>
+        <v>0.2048743496736095</v>
       </c>
       <c r="T9">
-        <v>0.2823171055529825</v>
+        <v>0.2048743496736094</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>156.183469856862</v>
+        <v>158.477852</v>
       </c>
       <c r="H10">
-        <v>156.183469856862</v>
+        <v>475.433556</v>
       </c>
       <c r="I10">
-        <v>0.5677216115297711</v>
+        <v>0.4433180927308344</v>
       </c>
       <c r="J10">
-        <v>0.5677216115297711</v>
+        <v>0.4433180927308344</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N10">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O10">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P10">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q10">
-        <v>160.7807731131174</v>
+        <v>168.1919632421426</v>
       </c>
       <c r="R10">
-        <v>160.7807731131174</v>
+        <v>1513.727669179284</v>
       </c>
       <c r="S10">
-        <v>0.04104255099238107</v>
+        <v>0.03057970081869186</v>
       </c>
       <c r="T10">
-        <v>0.04104255099238107</v>
+        <v>0.03057970081869186</v>
       </c>
     </row>
   </sheetData>
